--- a/1_Plasma_Pipette/1_Schematic/V1.0/Plasma_Pipette_V1.0_Main_BOM.xlsx
+++ b/1_Plasma_Pipette/1_Schematic/V1.0/Plasma_Pipette_V1.0_Main_BOM.xlsx
@@ -4,20 +4,22 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12645" activeTab="1"/>
   </bookViews>
   <sheets>
     <sheet name="Plasma_Pipette_Main_V1.0" sheetId="1" r:id="rId1"/>
+    <sheet name="Plasma_Pipette_Main_V1.0_Solder" sheetId="2" r:id="rId2"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0">Plasma_Pipette_Main_V1.0!$B$4:$L$4</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="1">Plasma_Pipette_Main_V1.0_Solder!$B$4:$L$4</definedName>
   </definedNames>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="145621"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="439" uniqueCount="250">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="878" uniqueCount="250">
   <si>
     <t>No</t>
   </si>
@@ -1743,7 +1745,7 @@
     </xf>
     <xf numFmtId="0" fontId="20" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="65">
+  <cellXfs count="67">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1937,6 +1939,12 @@
       <alignment horizontal="right" vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="36" borderId="10" xfId="0" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -2254,7 +2262,7 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns="" xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
@@ -2264,8 +2272,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:V45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="P26" sqref="O26:P27"/>
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="E37" sqref="E37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
@@ -4723,4 +4731,2466 @@
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:V45"/>
+  <sheetViews>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="I24" sqref="I24"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="2" max="2" width="6" customWidth="1"/>
+    <col min="3" max="3" width="19.875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="23.125" style="4" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="18.375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="23.625" hidden="1" customWidth="1"/>
+    <col min="7" max="7" width="58.625" customWidth="1"/>
+    <col min="9" max="9" width="36.875" bestFit="1" customWidth="1"/>
+    <col min="10" max="11" width="0" hidden="1" customWidth="1"/>
+    <col min="12" max="12" width="19.875" hidden="1" customWidth="1"/>
+    <col min="14" max="14" width="9.375" bestFit="1" customWidth="1"/>
+    <col min="20" max="21" width="12.875" bestFit="1" customWidth="1"/>
+    <col min="22" max="22" width="23.5" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:21" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B1" s="1" t="s">
+        <v>202</v>
+      </c>
+      <c r="D1" s="3"/>
+    </row>
+    <row r="2" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="B2" s="63" t="s">
+        <v>249</v>
+      </c>
+      <c r="C2" s="64">
+        <v>43193</v>
+      </c>
+      <c r="P2" s="61" t="s">
+        <v>246</v>
+      </c>
+    </row>
+    <row r="3" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="P3" s="61">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="4" spans="1:21" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>0</v>
+      </c>
+      <c r="C4" s="25" t="s">
+        <v>2</v>
+      </c>
+      <c r="D4" s="25" t="s">
+        <v>3</v>
+      </c>
+      <c r="E4" s="25" t="s">
+        <v>4</v>
+      </c>
+      <c r="F4" s="25" t="s">
+        <v>5</v>
+      </c>
+      <c r="G4" s="25" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="25" t="s">
+        <v>7</v>
+      </c>
+      <c r="I4" s="25" t="s">
+        <v>8</v>
+      </c>
+      <c r="J4" s="25" t="s">
+        <v>11</v>
+      </c>
+      <c r="K4" s="25" t="s">
+        <v>9</v>
+      </c>
+      <c r="L4" s="25" t="s">
+        <v>10</v>
+      </c>
+      <c r="M4" s="25" t="s">
+        <v>204</v>
+      </c>
+      <c r="N4" s="40" t="s">
+        <v>205</v>
+      </c>
+      <c r="O4" s="47" t="s">
+        <v>235</v>
+      </c>
+      <c r="P4" s="48" t="s">
+        <v>206</v>
+      </c>
+      <c r="Q4" s="48" t="s">
+        <v>207</v>
+      </c>
+      <c r="R4" s="48" t="s">
+        <v>208</v>
+      </c>
+      <c r="S4" s="48" t="s">
+        <v>209</v>
+      </c>
+      <c r="T4" s="49" t="s">
+        <v>237</v>
+      </c>
+      <c r="U4" s="49" t="s">
+        <v>245</v>
+      </c>
+    </row>
+    <row r="5" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>12</v>
+      </c>
+      <c r="B5" s="26">
+        <v>1</v>
+      </c>
+      <c r="C5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="D5" s="27" t="s">
+        <v>40</v>
+      </c>
+      <c r="E5" s="9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F5" s="9" t="s">
+        <v>41</v>
+      </c>
+      <c r="G5" s="9" t="s">
+        <v>42</v>
+      </c>
+      <c r="H5" s="9">
+        <v>1</v>
+      </c>
+      <c r="I5" s="66" t="s">
+        <v>43</v>
+      </c>
+      <c r="J5" s="9" t="s">
+        <v>27</v>
+      </c>
+      <c r="K5" s="9" t="s">
+        <v>26</v>
+      </c>
+      <c r="L5" s="9" t="s">
+        <v>21</v>
+      </c>
+      <c r="M5" s="9">
+        <v>10</v>
+      </c>
+      <c r="N5" s="39">
+        <f t="shared" ref="N5:N29" si="0">H5*M5</f>
+        <v>10</v>
+      </c>
+      <c r="O5" s="50"/>
+      <c r="P5" s="51"/>
+      <c r="Q5" s="51"/>
+      <c r="R5" s="51"/>
+      <c r="S5" s="51"/>
+      <c r="T5" s="52"/>
+      <c r="U5" s="52"/>
+    </row>
+    <row r="6" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>12</v>
+      </c>
+      <c r="B6" s="15">
+        <v>2</v>
+      </c>
+      <c r="C6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D6" s="16" t="s">
+        <v>32</v>
+      </c>
+      <c r="E6" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F6" s="10" t="s">
+        <v>33</v>
+      </c>
+      <c r="G6" s="10" t="s">
+        <v>34</v>
+      </c>
+      <c r="H6" s="10">
+        <v>1</v>
+      </c>
+      <c r="I6" s="34" t="s">
+        <v>35</v>
+      </c>
+      <c r="J6" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L6" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M6" s="10">
+        <v>10</v>
+      </c>
+      <c r="N6" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O6" s="17"/>
+      <c r="P6" s="18"/>
+      <c r="Q6" s="18"/>
+      <c r="R6" s="18"/>
+      <c r="S6" s="18"/>
+      <c r="T6" s="20"/>
+      <c r="U6" s="20"/>
+    </row>
+    <row r="7" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>12</v>
+      </c>
+      <c r="B7" s="15">
+        <v>3</v>
+      </c>
+      <c r="C7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D7" s="16" t="s">
+        <v>28</v>
+      </c>
+      <c r="E7" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="10" t="s">
+        <v>29</v>
+      </c>
+      <c r="G7" s="10" t="s">
+        <v>30</v>
+      </c>
+      <c r="H7" s="10">
+        <v>10</v>
+      </c>
+      <c r="I7" s="34" t="s">
+        <v>31</v>
+      </c>
+      <c r="J7" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K7" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L7" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M7" s="10">
+        <v>10</v>
+      </c>
+      <c r="N7" s="38">
+        <f t="shared" si="0"/>
+        <v>100</v>
+      </c>
+      <c r="O7" s="17"/>
+      <c r="P7" s="18"/>
+      <c r="Q7" s="18"/>
+      <c r="R7" s="18"/>
+      <c r="S7" s="18"/>
+      <c r="T7" s="20"/>
+      <c r="U7" s="20"/>
+    </row>
+    <row r="8" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>12</v>
+      </c>
+      <c r="B8" s="15">
+        <v>4</v>
+      </c>
+      <c r="C8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="D8" s="16" t="s">
+        <v>22</v>
+      </c>
+      <c r="E8" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="10" t="s">
+        <v>23</v>
+      </c>
+      <c r="G8" s="10" t="s">
+        <v>24</v>
+      </c>
+      <c r="H8" s="10">
+        <v>3</v>
+      </c>
+      <c r="I8" s="34" t="s">
+        <v>25</v>
+      </c>
+      <c r="J8" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K8" s="10" t="s">
+        <v>26</v>
+      </c>
+      <c r="L8" s="10" t="s">
+        <v>21</v>
+      </c>
+      <c r="M8" s="10">
+        <v>10</v>
+      </c>
+      <c r="N8" s="38">
+        <f t="shared" si="0"/>
+        <v>30</v>
+      </c>
+      <c r="O8" s="17"/>
+      <c r="P8" s="18"/>
+      <c r="Q8" s="18"/>
+      <c r="R8" s="18"/>
+      <c r="S8" s="18"/>
+      <c r="T8" s="20"/>
+      <c r="U8" s="20"/>
+    </row>
+    <row r="9" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>12</v>
+      </c>
+      <c r="B9" s="15">
+        <v>5</v>
+      </c>
+      <c r="C9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" s="16" t="s">
+        <v>14</v>
+      </c>
+      <c r="E9" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="10" t="s">
+        <v>16</v>
+      </c>
+      <c r="G9" s="10" t="s">
+        <v>17</v>
+      </c>
+      <c r="H9" s="10">
+        <v>4</v>
+      </c>
+      <c r="I9" s="34" t="s">
+        <v>18</v>
+      </c>
+      <c r="J9" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K9" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L9" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M9" s="10">
+        <v>210</v>
+      </c>
+      <c r="N9" s="38">
+        <f t="shared" si="0"/>
+        <v>840</v>
+      </c>
+      <c r="O9" s="17"/>
+      <c r="P9" s="18"/>
+      <c r="Q9" s="18"/>
+      <c r="R9" s="18"/>
+      <c r="S9" s="18"/>
+      <c r="T9" s="20"/>
+      <c r="U9" s="20"/>
+    </row>
+    <row r="10" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>12</v>
+      </c>
+      <c r="B10" s="15">
+        <v>6</v>
+      </c>
+      <c r="C10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="D10" s="16" t="s">
+        <v>36</v>
+      </c>
+      <c r="E10" s="10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="10" t="s">
+        <v>37</v>
+      </c>
+      <c r="G10" s="10" t="s">
+        <v>38</v>
+      </c>
+      <c r="H10" s="10">
+        <v>1</v>
+      </c>
+      <c r="I10" s="34" t="s">
+        <v>39</v>
+      </c>
+      <c r="J10" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K10" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L10" s="10" t="s">
+        <v>13</v>
+      </c>
+      <c r="M10" s="10">
+        <v>240</v>
+      </c>
+      <c r="N10" s="38">
+        <f t="shared" si="0"/>
+        <v>240</v>
+      </c>
+      <c r="O10" s="17"/>
+      <c r="P10" s="18"/>
+      <c r="Q10" s="18"/>
+      <c r="R10" s="18"/>
+      <c r="S10" s="18"/>
+      <c r="T10" s="20"/>
+      <c r="U10" s="20"/>
+    </row>
+    <row r="11" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>12</v>
+      </c>
+      <c r="B11" s="15">
+        <v>7</v>
+      </c>
+      <c r="C11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D11" s="16">
+        <v>0</v>
+      </c>
+      <c r="E11" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F11" s="10" t="s">
+        <v>72</v>
+      </c>
+      <c r="G11" s="10" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" s="10">
+        <v>5</v>
+      </c>
+      <c r="I11" s="10" t="s">
+        <v>74</v>
+      </c>
+      <c r="J11" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K11" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L11" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M11" s="10">
+        <v>10</v>
+      </c>
+      <c r="N11" s="38">
+        <f t="shared" si="0"/>
+        <v>50</v>
+      </c>
+      <c r="O11" s="17"/>
+      <c r="P11" s="18"/>
+      <c r="Q11" s="18"/>
+      <c r="R11" s="18"/>
+      <c r="S11" s="18"/>
+      <c r="T11" s="20"/>
+      <c r="U11" s="20"/>
+    </row>
+    <row r="12" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>12</v>
+      </c>
+      <c r="B12" s="15">
+        <v>8</v>
+      </c>
+      <c r="C12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D12" s="16">
+        <v>430</v>
+      </c>
+      <c r="E12" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F12" s="10" t="s">
+        <v>69</v>
+      </c>
+      <c r="G12" s="10" t="s">
+        <v>70</v>
+      </c>
+      <c r="H12" s="10">
+        <v>4</v>
+      </c>
+      <c r="I12" s="10" t="s">
+        <v>71</v>
+      </c>
+      <c r="J12" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K12" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L12" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M12" s="10">
+        <v>10</v>
+      </c>
+      <c r="N12" s="38">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O12" s="17"/>
+      <c r="P12" s="18"/>
+      <c r="Q12" s="18"/>
+      <c r="R12" s="18"/>
+      <c r="S12" s="18"/>
+      <c r="T12" s="20"/>
+      <c r="U12" s="20"/>
+    </row>
+    <row r="13" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>12</v>
+      </c>
+      <c r="B13" s="15">
+        <v>9</v>
+      </c>
+      <c r="C13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D13" s="16">
+        <v>470</v>
+      </c>
+      <c r="E13" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F13" s="10" t="s">
+        <v>75</v>
+      </c>
+      <c r="G13" s="10" t="s">
+        <v>76</v>
+      </c>
+      <c r="H13" s="10">
+        <v>4</v>
+      </c>
+      <c r="I13" s="10" t="s">
+        <v>77</v>
+      </c>
+      <c r="J13" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K13" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L13" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M13" s="10">
+        <v>10</v>
+      </c>
+      <c r="N13" s="38">
+        <f t="shared" si="0"/>
+        <v>40</v>
+      </c>
+      <c r="O13" s="17"/>
+      <c r="P13" s="18"/>
+      <c r="Q13" s="18"/>
+      <c r="R13" s="18"/>
+      <c r="S13" s="18"/>
+      <c r="T13" s="20"/>
+      <c r="U13" s="20"/>
+    </row>
+    <row r="14" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>12</v>
+      </c>
+      <c r="B14" s="15">
+        <v>10</v>
+      </c>
+      <c r="C14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D14" s="16" t="s">
+        <v>57</v>
+      </c>
+      <c r="E14" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F14" s="10" t="s">
+        <v>58</v>
+      </c>
+      <c r="G14" s="10" t="s">
+        <v>59</v>
+      </c>
+      <c r="H14" s="10">
+        <v>1</v>
+      </c>
+      <c r="I14" s="10" t="s">
+        <v>60</v>
+      </c>
+      <c r="J14" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K14" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L14" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M14" s="10">
+        <v>10</v>
+      </c>
+      <c r="N14" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O14" s="17"/>
+      <c r="P14" s="18"/>
+      <c r="Q14" s="18"/>
+      <c r="R14" s="18"/>
+      <c r="S14" s="18"/>
+      <c r="T14" s="20"/>
+      <c r="U14" s="20"/>
+    </row>
+    <row r="15" spans="1:21" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>12</v>
+      </c>
+      <c r="B15" s="15">
+        <v>11</v>
+      </c>
+      <c r="C15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D15" s="16" t="s">
+        <v>50</v>
+      </c>
+      <c r="E15" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F15" s="10" t="s">
+        <v>51</v>
+      </c>
+      <c r="G15" s="10" t="s">
+        <v>52</v>
+      </c>
+      <c r="H15" s="10">
+        <v>1</v>
+      </c>
+      <c r="I15" s="10" t="s">
+        <v>53</v>
+      </c>
+      <c r="J15" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K15" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L15" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M15" s="10">
+        <v>10</v>
+      </c>
+      <c r="N15" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O15" s="17"/>
+      <c r="P15" s="18"/>
+      <c r="Q15" s="18"/>
+      <c r="R15" s="18"/>
+      <c r="S15" s="18"/>
+      <c r="T15" s="20"/>
+      <c r="U15" s="20"/>
+    </row>
+    <row r="16" spans="1:21" ht="33" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>12</v>
+      </c>
+      <c r="B16" s="15">
+        <v>12</v>
+      </c>
+      <c r="C16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D16" s="16" t="s">
+        <v>45</v>
+      </c>
+      <c r="E16" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F16" s="10" t="s">
+        <v>47</v>
+      </c>
+      <c r="G16" s="10" t="s">
+        <v>48</v>
+      </c>
+      <c r="H16" s="65">
+        <v>14</v>
+      </c>
+      <c r="I16" s="62" t="s">
+        <v>248</v>
+      </c>
+      <c r="J16" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K16" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L16" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M16" s="10">
+        <v>10</v>
+      </c>
+      <c r="N16" s="38">
+        <f t="shared" si="0"/>
+        <v>140</v>
+      </c>
+      <c r="O16" s="17"/>
+      <c r="P16" s="18"/>
+      <c r="Q16" s="18"/>
+      <c r="R16" s="18"/>
+      <c r="S16" s="18"/>
+      <c r="T16" s="20"/>
+      <c r="U16" s="20"/>
+    </row>
+    <row r="17" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>12</v>
+      </c>
+      <c r="B17" s="15">
+        <v>13</v>
+      </c>
+      <c r="C17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="D17" s="16" t="s">
+        <v>61</v>
+      </c>
+      <c r="E17" s="10" t="s">
+        <v>46</v>
+      </c>
+      <c r="F17" s="10" t="s">
+        <v>62</v>
+      </c>
+      <c r="G17" s="10" t="s">
+        <v>63</v>
+      </c>
+      <c r="H17" s="10">
+        <v>1</v>
+      </c>
+      <c r="I17" s="10" t="s">
+        <v>64</v>
+      </c>
+      <c r="J17" s="10" t="s">
+        <v>27</v>
+      </c>
+      <c r="K17" s="10" t="s">
+        <v>49</v>
+      </c>
+      <c r="L17" s="10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M17" s="10">
+        <v>10</v>
+      </c>
+      <c r="N17" s="38">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O17" s="17"/>
+      <c r="P17" s="18"/>
+      <c r="Q17" s="18"/>
+      <c r="R17" s="18"/>
+      <c r="S17" s="18"/>
+      <c r="T17" s="20"/>
+      <c r="U17" s="20"/>
+    </row>
+    <row r="18" spans="1:22" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" t="s">
+        <v>12</v>
+      </c>
+      <c r="B18" s="28">
+        <v>14</v>
+      </c>
+      <c r="C18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="D18" s="29" t="s">
+        <v>65</v>
+      </c>
+      <c r="E18" s="12" t="s">
+        <v>46</v>
+      </c>
+      <c r="F18" s="12" t="s">
+        <v>66</v>
+      </c>
+      <c r="G18" s="12" t="s">
+        <v>67</v>
+      </c>
+      <c r="H18" s="12">
+        <v>1</v>
+      </c>
+      <c r="I18" s="12" t="s">
+        <v>68</v>
+      </c>
+      <c r="J18" s="12" t="s">
+        <v>27</v>
+      </c>
+      <c r="K18" s="12" t="s">
+        <v>49</v>
+      </c>
+      <c r="L18" s="12" t="s">
+        <v>44</v>
+      </c>
+      <c r="M18" s="12">
+        <v>10</v>
+      </c>
+      <c r="N18" s="41">
+        <f t="shared" si="0"/>
+        <v>10</v>
+      </c>
+      <c r="O18" s="21"/>
+      <c r="P18" s="14"/>
+      <c r="Q18" s="14"/>
+      <c r="R18" s="14"/>
+      <c r="S18" s="14"/>
+      <c r="T18" s="23"/>
+      <c r="U18" s="23"/>
+    </row>
+    <row r="19" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>12</v>
+      </c>
+      <c r="B19" s="26">
+        <v>15</v>
+      </c>
+      <c r="C19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="D19" s="27" t="s">
+        <v>121</v>
+      </c>
+      <c r="E19" s="9" t="s">
+        <v>122</v>
+      </c>
+      <c r="F19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="G19" s="9" t="s">
+        <v>123</v>
+      </c>
+      <c r="H19" s="9">
+        <v>1</v>
+      </c>
+      <c r="I19" s="9" t="s">
+        <v>124</v>
+      </c>
+      <c r="J19" s="9" t="s">
+        <v>125</v>
+      </c>
+      <c r="K19" s="9" t="s">
+        <v>93</v>
+      </c>
+      <c r="L19" s="9" t="s">
+        <v>121</v>
+      </c>
+      <c r="M19" s="9">
+        <v>520</v>
+      </c>
+      <c r="N19" s="39">
+        <f t="shared" si="0"/>
+        <v>520</v>
+      </c>
+      <c r="O19" s="56">
+        <v>380</v>
+      </c>
+      <c r="P19" s="30">
+        <f t="shared" ref="P19:P41" si="1">H19*P$3</f>
+        <v>20</v>
+      </c>
+      <c r="Q19" s="9">
+        <v>1</v>
+      </c>
+      <c r="R19" s="9">
+        <v>20</v>
+      </c>
+      <c r="S19" s="5">
+        <v>7600</v>
+      </c>
+      <c r="T19" s="31" t="s">
+        <v>221</v>
+      </c>
+      <c r="U19" s="58"/>
+    </row>
+    <row r="20" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>12</v>
+      </c>
+      <c r="B20" s="15">
+        <v>16</v>
+      </c>
+      <c r="C20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="D20" s="16" t="s">
+        <v>126</v>
+      </c>
+      <c r="E20" s="10" t="s">
+        <v>127</v>
+      </c>
+      <c r="F20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="G20" s="10" t="s">
+        <v>128</v>
+      </c>
+      <c r="H20" s="10">
+        <v>1</v>
+      </c>
+      <c r="I20" s="10" t="s">
+        <v>129</v>
+      </c>
+      <c r="J20" s="10" t="s">
+        <v>131</v>
+      </c>
+      <c r="K20" s="11" t="s">
+        <v>130</v>
+      </c>
+      <c r="L20" s="10" t="s">
+        <v>126</v>
+      </c>
+      <c r="M20" s="10">
+        <v>200</v>
+      </c>
+      <c r="N20" s="38">
+        <f t="shared" si="0"/>
+        <v>200</v>
+      </c>
+      <c r="O20" s="45">
+        <v>200</v>
+      </c>
+      <c r="P20" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q20" s="10">
+        <v>10</v>
+      </c>
+      <c r="R20" s="10">
+        <v>20</v>
+      </c>
+      <c r="S20" s="6">
+        <v>4000</v>
+      </c>
+      <c r="T20" s="33" t="s">
+        <v>222</v>
+      </c>
+      <c r="U20" s="59"/>
+    </row>
+    <row r="21" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="B21" s="15">
+        <v>17</v>
+      </c>
+      <c r="C21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="D21" s="16" t="s">
+        <v>239</v>
+      </c>
+      <c r="E21" s="10" t="s">
+        <v>241</v>
+      </c>
+      <c r="F21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="G21" s="10" t="s">
+        <v>240</v>
+      </c>
+      <c r="H21" s="10">
+        <v>3</v>
+      </c>
+      <c r="I21" s="10" t="s">
+        <v>244</v>
+      </c>
+      <c r="J21" s="10" t="s">
+        <v>243</v>
+      </c>
+      <c r="K21" s="10" t="s">
+        <v>242</v>
+      </c>
+      <c r="L21" s="10" t="s">
+        <v>239</v>
+      </c>
+      <c r="M21" s="10">
+        <v>60</v>
+      </c>
+      <c r="N21" s="38">
+        <f t="shared" si="0"/>
+        <v>180</v>
+      </c>
+      <c r="O21" s="45">
+        <v>60</v>
+      </c>
+      <c r="P21" s="32">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q21" s="10">
+        <v>1</v>
+      </c>
+      <c r="R21" s="34">
+        <v>120</v>
+      </c>
+      <c r="S21" s="6">
+        <f>M21*R21</f>
+        <v>7200</v>
+      </c>
+      <c r="T21" s="57"/>
+      <c r="U21" s="53" t="s">
+        <v>224</v>
+      </c>
+      <c r="V21" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="22" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A22" t="s">
+        <v>12</v>
+      </c>
+      <c r="B22" s="15">
+        <v>18</v>
+      </c>
+      <c r="C22" s="10" t="s">
+        <v>175</v>
+      </c>
+      <c r="D22" s="16" t="s">
+        <v>175</v>
+      </c>
+      <c r="E22" s="10" t="s">
+        <v>176</v>
+      </c>
+      <c r="F22" s="10" t="s">
+        <v>177</v>
+      </c>
+      <c r="G22" s="10" t="s">
+        <v>178</v>
+      </c>
+      <c r="H22" s="10">
+        <v>1</v>
+      </c>
+      <c r="I22" s="10" t="s">
+        <v>179</v>
+      </c>
+      <c r="J22" s="10" t="s">
+        <v>181</v>
+      </c>
+      <c r="K22" s="11" t="s">
+        <v>180</v>
+      </c>
+      <c r="L22" s="10" t="s">
+        <v>238</v>
+      </c>
+      <c r="M22" s="10">
+        <v>380</v>
+      </c>
+      <c r="N22" s="38">
+        <f t="shared" si="0"/>
+        <v>380</v>
+      </c>
+      <c r="O22" s="45">
+        <v>380</v>
+      </c>
+      <c r="P22" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q22" s="10">
+        <v>10</v>
+      </c>
+      <c r="R22" s="10">
+        <v>10</v>
+      </c>
+      <c r="S22" s="7">
+        <v>4180</v>
+      </c>
+      <c r="T22" s="33" t="s">
+        <v>236</v>
+      </c>
+      <c r="U22" s="59"/>
+    </row>
+    <row r="23" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A23" t="s">
+        <v>12</v>
+      </c>
+      <c r="B23" s="15">
+        <v>19</v>
+      </c>
+      <c r="C23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="D23" s="16" t="s">
+        <v>169</v>
+      </c>
+      <c r="E23" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="G23" s="10" t="s">
+        <v>171</v>
+      </c>
+      <c r="H23" s="10">
+        <v>1</v>
+      </c>
+      <c r="I23" s="10" t="s">
+        <v>172</v>
+      </c>
+      <c r="J23" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K23" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L23" s="10" t="s">
+        <v>169</v>
+      </c>
+      <c r="M23" s="10">
+        <v>110</v>
+      </c>
+      <c r="N23" s="38">
+        <f t="shared" si="0"/>
+        <v>110</v>
+      </c>
+      <c r="O23" s="45">
+        <v>110</v>
+      </c>
+      <c r="P23" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q23" s="10">
+        <v>10</v>
+      </c>
+      <c r="R23" s="10">
+        <v>20</v>
+      </c>
+      <c r="S23" s="6">
+        <v>2200</v>
+      </c>
+      <c r="T23" s="33" t="s">
+        <v>229</v>
+      </c>
+      <c r="U23" s="59"/>
+    </row>
+    <row r="24" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A24" t="s">
+        <v>12</v>
+      </c>
+      <c r="B24" s="15">
+        <v>20</v>
+      </c>
+      <c r="C24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="D24" s="16" t="s">
+        <v>182</v>
+      </c>
+      <c r="E24" s="10" t="s">
+        <v>170</v>
+      </c>
+      <c r="F24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="G24" s="10" t="s">
+        <v>183</v>
+      </c>
+      <c r="H24" s="10">
+        <v>1</v>
+      </c>
+      <c r="I24" s="10" t="s">
+        <v>184</v>
+      </c>
+      <c r="J24" s="10" t="s">
+        <v>174</v>
+      </c>
+      <c r="K24" s="11" t="s">
+        <v>173</v>
+      </c>
+      <c r="L24" s="10" t="s">
+        <v>182</v>
+      </c>
+      <c r="M24" s="10">
+        <v>220</v>
+      </c>
+      <c r="N24" s="38">
+        <f t="shared" si="0"/>
+        <v>220</v>
+      </c>
+      <c r="O24" s="45">
+        <v>220</v>
+      </c>
+      <c r="P24" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q24" s="10">
+        <v>10</v>
+      </c>
+      <c r="R24" s="10">
+        <v>20</v>
+      </c>
+      <c r="S24" s="6">
+        <v>4400</v>
+      </c>
+      <c r="T24" s="33" t="s">
+        <v>230</v>
+      </c>
+      <c r="U24" s="59"/>
+    </row>
+    <row r="25" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A25" t="s">
+        <v>12</v>
+      </c>
+      <c r="B25" s="15">
+        <v>21</v>
+      </c>
+      <c r="C25" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="D25" s="16" t="s">
+        <v>185</v>
+      </c>
+      <c r="E25" s="10" t="s">
+        <v>186</v>
+      </c>
+      <c r="F25" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="G25" s="10" t="s">
+        <v>187</v>
+      </c>
+      <c r="H25" s="10">
+        <v>1</v>
+      </c>
+      <c r="I25" s="10" t="s">
+        <v>188</v>
+      </c>
+      <c r="J25" s="10" t="s">
+        <v>190</v>
+      </c>
+      <c r="K25" s="11" t="s">
+        <v>189</v>
+      </c>
+      <c r="L25" s="10" t="s">
+        <v>185</v>
+      </c>
+      <c r="M25" s="10">
+        <v>260</v>
+      </c>
+      <c r="N25" s="38">
+        <f t="shared" si="0"/>
+        <v>260</v>
+      </c>
+      <c r="O25" s="45">
+        <v>320</v>
+      </c>
+      <c r="P25" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q25" s="10">
+        <v>1</v>
+      </c>
+      <c r="R25" s="10">
+        <v>20</v>
+      </c>
+      <c r="S25" s="6">
+        <v>6400</v>
+      </c>
+      <c r="T25" s="33" t="s">
+        <v>231</v>
+      </c>
+      <c r="U25" s="59"/>
+    </row>
+    <row r="26" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A26" t="s">
+        <v>12</v>
+      </c>
+      <c r="B26" s="15">
+        <v>22</v>
+      </c>
+      <c r="C26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="D26" s="16" t="s">
+        <v>79</v>
+      </c>
+      <c r="E26" s="10" t="s">
+        <v>80</v>
+      </c>
+      <c r="F26" s="10" t="s">
+        <v>79</v>
+      </c>
+      <c r="G26" s="10" t="s">
+        <v>81</v>
+      </c>
+      <c r="H26" s="10">
+        <v>1</v>
+      </c>
+      <c r="I26" s="10" t="s">
+        <v>82</v>
+      </c>
+      <c r="J26" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K26" s="10" t="s">
+        <v>19</v>
+      </c>
+      <c r="L26" s="10" t="s">
+        <v>78</v>
+      </c>
+      <c r="M26" s="10">
+        <v>420</v>
+      </c>
+      <c r="N26" s="38">
+        <f t="shared" si="0"/>
+        <v>420</v>
+      </c>
+      <c r="O26" s="45">
+        <v>350</v>
+      </c>
+      <c r="P26" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q26" s="10">
+        <v>1</v>
+      </c>
+      <c r="R26" s="11">
+        <v>20</v>
+      </c>
+      <c r="S26" s="6">
+        <v>7000</v>
+      </c>
+      <c r="T26" s="33" t="s">
+        <v>210</v>
+      </c>
+      <c r="U26" s="59"/>
+      <c r="V26" t="s">
+        <v>211</v>
+      </c>
+    </row>
+    <row r="27" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A27" t="s">
+        <v>12</v>
+      </c>
+      <c r="B27" s="15">
+        <v>23</v>
+      </c>
+      <c r="C27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="D27" s="16" t="s">
+        <v>83</v>
+      </c>
+      <c r="E27" s="10" t="s">
+        <v>84</v>
+      </c>
+      <c r="F27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="G27" s="10" t="s">
+        <v>85</v>
+      </c>
+      <c r="H27" s="10">
+        <v>1</v>
+      </c>
+      <c r="I27" s="10" t="s">
+        <v>86</v>
+      </c>
+      <c r="J27" s="10" t="s">
+        <v>88</v>
+      </c>
+      <c r="K27" s="11" t="s">
+        <v>87</v>
+      </c>
+      <c r="L27" s="10" t="s">
+        <v>83</v>
+      </c>
+      <c r="M27" s="10">
+        <v>2150</v>
+      </c>
+      <c r="N27" s="38">
+        <f t="shared" si="0"/>
+        <v>2150</v>
+      </c>
+      <c r="O27" s="45">
+        <v>1690</v>
+      </c>
+      <c r="P27" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q27" s="10">
+        <v>1</v>
+      </c>
+      <c r="R27" s="10">
+        <v>20</v>
+      </c>
+      <c r="S27" s="6">
+        <v>33800</v>
+      </c>
+      <c r="T27" s="33" t="s">
+        <v>212</v>
+      </c>
+      <c r="U27" s="59"/>
+    </row>
+    <row r="28" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A28" t="s">
+        <v>12</v>
+      </c>
+      <c r="B28" s="15">
+        <v>24</v>
+      </c>
+      <c r="C28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="D28" s="16" t="s">
+        <v>89</v>
+      </c>
+      <c r="E28" s="10" t="s">
+        <v>90</v>
+      </c>
+      <c r="F28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="G28" s="10" t="s">
+        <v>91</v>
+      </c>
+      <c r="H28" s="10">
+        <v>1</v>
+      </c>
+      <c r="I28" s="10" t="s">
+        <v>92</v>
+      </c>
+      <c r="J28" s="10" t="s">
+        <v>94</v>
+      </c>
+      <c r="K28" s="10" t="s">
+        <v>93</v>
+      </c>
+      <c r="L28" s="10" t="s">
+        <v>89</v>
+      </c>
+      <c r="M28" s="10">
+        <v>480</v>
+      </c>
+      <c r="N28" s="38">
+        <f t="shared" si="0"/>
+        <v>480</v>
+      </c>
+      <c r="O28" s="45">
+        <v>260</v>
+      </c>
+      <c r="P28" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q28" s="10">
+        <v>1</v>
+      </c>
+      <c r="R28" s="34">
+        <v>100</v>
+      </c>
+      <c r="S28" s="6">
+        <v>26000</v>
+      </c>
+      <c r="T28" s="33" t="s">
+        <v>213</v>
+      </c>
+      <c r="U28" s="59"/>
+      <c r="V28" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="29" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>12</v>
+      </c>
+      <c r="B29" s="15">
+        <v>25</v>
+      </c>
+      <c r="C29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="D29" s="16" t="s">
+        <v>95</v>
+      </c>
+      <c r="E29" s="10" t="s">
+        <v>96</v>
+      </c>
+      <c r="F29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="G29" s="10" t="s">
+        <v>97</v>
+      </c>
+      <c r="H29" s="10">
+        <v>1</v>
+      </c>
+      <c r="I29" s="10" t="s">
+        <v>98</v>
+      </c>
+      <c r="J29" s="10" t="s">
+        <v>100</v>
+      </c>
+      <c r="K29" s="10" t="s">
+        <v>99</v>
+      </c>
+      <c r="L29" s="10" t="s">
+        <v>95</v>
+      </c>
+      <c r="M29" s="10">
+        <v>720</v>
+      </c>
+      <c r="N29" s="38">
+        <f t="shared" si="0"/>
+        <v>720</v>
+      </c>
+      <c r="O29" s="45">
+        <v>1270</v>
+      </c>
+      <c r="P29" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q29" s="10">
+        <v>1</v>
+      </c>
+      <c r="R29" s="10">
+        <v>20</v>
+      </c>
+      <c r="S29" s="6">
+        <v>25400</v>
+      </c>
+      <c r="T29" s="33" t="s">
+        <v>215</v>
+      </c>
+      <c r="U29" s="59"/>
+    </row>
+    <row r="30" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A30" t="s">
+        <v>12</v>
+      </c>
+      <c r="B30" s="15">
+        <v>26</v>
+      </c>
+      <c r="C30" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="D30" s="16" t="s">
+        <v>102</v>
+      </c>
+      <c r="E30" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F30" s="10" t="s">
+        <v>102</v>
+      </c>
+      <c r="G30" s="10" t="s">
+        <v>104</v>
+      </c>
+      <c r="H30" s="10">
+        <v>1</v>
+      </c>
+      <c r="I30" s="10" t="s">
+        <v>105</v>
+      </c>
+      <c r="J30" s="10" t="s">
+        <v>107</v>
+      </c>
+      <c r="K30" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L30" s="10" t="s">
+        <v>101</v>
+      </c>
+      <c r="M30" s="10">
+        <v>20</v>
+      </c>
+      <c r="N30" s="42">
+        <v>40</v>
+      </c>
+      <c r="O30" s="45">
+        <v>40</v>
+      </c>
+      <c r="P30" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q30" s="10">
+        <v>10</v>
+      </c>
+      <c r="R30" s="10">
+        <v>20</v>
+      </c>
+      <c r="S30" s="6">
+        <v>800</v>
+      </c>
+      <c r="T30" s="33" t="s">
+        <v>216</v>
+      </c>
+      <c r="U30" s="59"/>
+    </row>
+    <row r="31" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A31" t="s">
+        <v>12</v>
+      </c>
+      <c r="B31" s="15">
+        <v>27</v>
+      </c>
+      <c r="C31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D31" s="16" t="s">
+        <v>109</v>
+      </c>
+      <c r="E31" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F31" s="10" t="s">
+        <v>109</v>
+      </c>
+      <c r="G31" s="10" t="s">
+        <v>110</v>
+      </c>
+      <c r="H31" s="10">
+        <v>1</v>
+      </c>
+      <c r="I31" s="10" t="s">
+        <v>111</v>
+      </c>
+      <c r="J31" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K31" s="10" t="s">
+        <v>112</v>
+      </c>
+      <c r="L31" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M31" s="10">
+        <v>20</v>
+      </c>
+      <c r="N31" s="38">
+        <f t="shared" ref="N31:N37" si="2">H31*M31</f>
+        <v>20</v>
+      </c>
+      <c r="O31" s="45">
+        <v>20</v>
+      </c>
+      <c r="P31" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q31" s="10">
+        <v>10</v>
+      </c>
+      <c r="R31" s="34">
+        <v>40</v>
+      </c>
+      <c r="S31" s="6">
+        <v>800</v>
+      </c>
+      <c r="T31" s="33" t="s">
+        <v>217</v>
+      </c>
+      <c r="U31" s="59"/>
+      <c r="V31" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="32" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A32" t="s">
+        <v>12</v>
+      </c>
+      <c r="B32" s="15">
+        <v>28</v>
+      </c>
+      <c r="C32" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D32" s="16" t="s">
+        <v>113</v>
+      </c>
+      <c r="E32" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F32" s="10" t="s">
+        <v>113</v>
+      </c>
+      <c r="G32" s="10" t="s">
+        <v>114</v>
+      </c>
+      <c r="H32" s="10">
+        <v>1</v>
+      </c>
+      <c r="I32" s="10" t="s">
+        <v>115</v>
+      </c>
+      <c r="J32" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K32" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L32" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M32" s="10">
+        <v>40</v>
+      </c>
+      <c r="N32" s="38">
+        <f t="shared" si="2"/>
+        <v>40</v>
+      </c>
+      <c r="O32" s="45">
+        <v>250</v>
+      </c>
+      <c r="P32" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q32" s="10">
+        <v>10</v>
+      </c>
+      <c r="R32" s="10">
+        <v>20</v>
+      </c>
+      <c r="S32" s="6">
+        <v>5000</v>
+      </c>
+      <c r="T32" s="35" t="s">
+        <v>218</v>
+      </c>
+      <c r="U32" s="60"/>
+      <c r="V32" t="s">
+        <v>219</v>
+      </c>
+    </row>
+    <row r="33" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A33" t="s">
+        <v>12</v>
+      </c>
+      <c r="B33" s="15">
+        <v>29</v>
+      </c>
+      <c r="C33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="D33" s="16" t="s">
+        <v>117</v>
+      </c>
+      <c r="E33" s="10" t="s">
+        <v>103</v>
+      </c>
+      <c r="F33" s="10" t="s">
+        <v>117</v>
+      </c>
+      <c r="G33" s="10" t="s">
+        <v>118</v>
+      </c>
+      <c r="H33" s="10">
+        <v>1</v>
+      </c>
+      <c r="I33" s="10" t="s">
+        <v>119</v>
+      </c>
+      <c r="J33" s="10" t="s">
+        <v>20</v>
+      </c>
+      <c r="K33" s="10" t="s">
+        <v>120</v>
+      </c>
+      <c r="L33" s="10" t="s">
+        <v>108</v>
+      </c>
+      <c r="M33" s="10">
+        <v>20</v>
+      </c>
+      <c r="N33" s="38">
+        <f t="shared" si="2"/>
+        <v>20</v>
+      </c>
+      <c r="O33" s="45">
+        <v>20</v>
+      </c>
+      <c r="P33" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q33" s="10">
+        <v>10</v>
+      </c>
+      <c r="R33" s="34">
+        <v>40</v>
+      </c>
+      <c r="S33" s="6">
+        <v>800</v>
+      </c>
+      <c r="T33" s="35" t="s">
+        <v>220</v>
+      </c>
+      <c r="U33" s="60"/>
+      <c r="V33" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="34" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A34" t="s">
+        <v>12</v>
+      </c>
+      <c r="B34" s="15">
+        <v>30</v>
+      </c>
+      <c r="C34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="D34" s="16" t="s">
+        <v>137</v>
+      </c>
+      <c r="E34" s="10" t="s">
+        <v>138</v>
+      </c>
+      <c r="F34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="G34" s="10" t="s">
+        <v>139</v>
+      </c>
+      <c r="H34" s="10">
+        <v>5</v>
+      </c>
+      <c r="I34" s="10" t="s">
+        <v>140</v>
+      </c>
+      <c r="J34" s="10" t="s">
+        <v>141</v>
+      </c>
+      <c r="K34" s="10" t="s">
+        <v>106</v>
+      </c>
+      <c r="L34" s="10" t="s">
+        <v>137</v>
+      </c>
+      <c r="M34" s="10">
+        <v>180</v>
+      </c>
+      <c r="N34" s="38">
+        <f t="shared" si="2"/>
+        <v>900</v>
+      </c>
+      <c r="O34" s="46"/>
+      <c r="P34" s="37">
+        <f t="shared" si="1"/>
+        <v>100</v>
+      </c>
+      <c r="Q34" s="18"/>
+      <c r="R34" s="18"/>
+      <c r="S34" s="36">
+        <v>0</v>
+      </c>
+      <c r="T34" s="20"/>
+      <c r="U34" s="59"/>
+      <c r="V34" t="s">
+        <v>223</v>
+      </c>
+    </row>
+    <row r="35" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A35" t="s">
+        <v>12</v>
+      </c>
+      <c r="B35" s="15">
+        <v>31</v>
+      </c>
+      <c r="C35" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="D35" s="16" t="s">
+        <v>197</v>
+      </c>
+      <c r="E35" s="10" t="s">
+        <v>198</v>
+      </c>
+      <c r="F35" s="10" t="s">
+        <v>197</v>
+      </c>
+      <c r="G35" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H35" s="10">
+        <v>1</v>
+      </c>
+      <c r="I35" s="10" t="s">
+        <v>199</v>
+      </c>
+      <c r="J35" s="10" t="s">
+        <v>201</v>
+      </c>
+      <c r="K35" s="10" t="s">
+        <v>200</v>
+      </c>
+      <c r="L35" s="10" t="s">
+        <v>196</v>
+      </c>
+      <c r="M35" s="10">
+        <v>160</v>
+      </c>
+      <c r="N35" s="38">
+        <f t="shared" si="2"/>
+        <v>160</v>
+      </c>
+      <c r="O35" s="45">
+        <v>160</v>
+      </c>
+      <c r="P35" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q35" s="10">
+        <v>50</v>
+      </c>
+      <c r="R35" s="11">
+        <v>50</v>
+      </c>
+      <c r="S35" s="6">
+        <v>8000</v>
+      </c>
+      <c r="T35" s="33" t="s">
+        <v>232</v>
+      </c>
+      <c r="U35" s="59"/>
+      <c r="V35" t="s">
+        <v>233</v>
+      </c>
+    </row>
+    <row r="36" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A36" t="s">
+        <v>12</v>
+      </c>
+      <c r="B36" s="15">
+        <v>32</v>
+      </c>
+      <c r="C36" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="D36" s="16" t="s">
+        <v>132</v>
+      </c>
+      <c r="E36" s="10" t="s">
+        <v>133</v>
+      </c>
+      <c r="F36" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="G36" s="10" t="s">
+        <v>134</v>
+      </c>
+      <c r="H36" s="10">
+        <v>3</v>
+      </c>
+      <c r="I36" s="10" t="s">
+        <v>135</v>
+      </c>
+      <c r="J36" s="10" t="s">
+        <v>136</v>
+      </c>
+      <c r="K36" s="10" t="s">
+        <v>116</v>
+      </c>
+      <c r="L36" s="10" t="s">
+        <v>132</v>
+      </c>
+      <c r="M36" s="10">
+        <v>280</v>
+      </c>
+      <c r="N36" s="38">
+        <f t="shared" si="2"/>
+        <v>840</v>
+      </c>
+      <c r="O36" s="45">
+        <v>270</v>
+      </c>
+      <c r="P36" s="32">
+        <f t="shared" si="1"/>
+        <v>60</v>
+      </c>
+      <c r="Q36" s="10">
+        <v>1</v>
+      </c>
+      <c r="R36" s="10">
+        <v>60</v>
+      </c>
+      <c r="S36" s="6">
+        <v>16200</v>
+      </c>
+      <c r="T36" s="33" t="s">
+        <v>234</v>
+      </c>
+      <c r="U36" s="59"/>
+    </row>
+    <row r="37" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A37" t="s">
+        <v>12</v>
+      </c>
+      <c r="B37" s="15">
+        <v>33</v>
+      </c>
+      <c r="C37" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="D37" s="16" t="s">
+        <v>142</v>
+      </c>
+      <c r="E37" s="10" t="s">
+        <v>143</v>
+      </c>
+      <c r="F37" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="G37" s="10" t="s">
+        <v>144</v>
+      </c>
+      <c r="H37" s="10">
+        <v>1</v>
+      </c>
+      <c r="I37" s="10" t="s">
+        <v>145</v>
+      </c>
+      <c r="J37" s="10" t="s">
+        <v>147</v>
+      </c>
+      <c r="K37" s="10" t="s">
+        <v>146</v>
+      </c>
+      <c r="L37" s="10" t="s">
+        <v>142</v>
+      </c>
+      <c r="M37" s="10">
+        <v>3970</v>
+      </c>
+      <c r="N37" s="38">
+        <f t="shared" si="2"/>
+        <v>3970</v>
+      </c>
+      <c r="O37" s="45">
+        <v>2340</v>
+      </c>
+      <c r="P37" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q37" s="10">
+        <v>1</v>
+      </c>
+      <c r="R37" s="34">
+        <v>40</v>
+      </c>
+      <c r="S37" s="6">
+        <v>93600</v>
+      </c>
+      <c r="T37" s="33" t="s">
+        <v>224</v>
+      </c>
+      <c r="U37" s="59"/>
+      <c r="V37" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="38" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A38" t="s">
+        <v>12</v>
+      </c>
+      <c r="B38" s="15">
+        <v>34</v>
+      </c>
+      <c r="C38" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="D38" s="16" t="s">
+        <v>149</v>
+      </c>
+      <c r="E38" s="10" t="s">
+        <v>150</v>
+      </c>
+      <c r="F38" s="10" t="s">
+        <v>149</v>
+      </c>
+      <c r="G38" s="10" t="s">
+        <v>151</v>
+      </c>
+      <c r="H38" s="10">
+        <v>1</v>
+      </c>
+      <c r="I38" s="10" t="s">
+        <v>152</v>
+      </c>
+      <c r="J38" s="10" t="s">
+        <v>154</v>
+      </c>
+      <c r="K38" s="10" t="s">
+        <v>153</v>
+      </c>
+      <c r="L38" s="10" t="s">
+        <v>148</v>
+      </c>
+      <c r="M38" s="10">
+        <v>750</v>
+      </c>
+      <c r="N38" s="38">
+        <v>3240</v>
+      </c>
+      <c r="O38" s="45">
+        <v>550</v>
+      </c>
+      <c r="P38" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q38" s="10">
+        <v>1</v>
+      </c>
+      <c r="R38" s="10">
+        <v>25</v>
+      </c>
+      <c r="S38" s="6">
+        <v>13750</v>
+      </c>
+      <c r="T38" s="33" t="s">
+        <v>225</v>
+      </c>
+      <c r="U38" s="59"/>
+    </row>
+    <row r="39" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A39" t="s">
+        <v>12</v>
+      </c>
+      <c r="B39" s="15">
+        <v>35</v>
+      </c>
+      <c r="C39" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="D39" s="16" t="s">
+        <v>155</v>
+      </c>
+      <c r="E39" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F39" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="G39" s="10" t="s">
+        <v>157</v>
+      </c>
+      <c r="H39" s="10">
+        <v>1</v>
+      </c>
+      <c r="I39" s="10" t="s">
+        <v>158</v>
+      </c>
+      <c r="J39" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K39" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L39" s="10" t="s">
+        <v>155</v>
+      </c>
+      <c r="M39" s="10">
+        <v>2850</v>
+      </c>
+      <c r="N39" s="38">
+        <f>H39*M39</f>
+        <v>2850</v>
+      </c>
+      <c r="O39" s="45">
+        <v>3240</v>
+      </c>
+      <c r="P39" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q39" s="10">
+        <v>1</v>
+      </c>
+      <c r="R39" s="10">
+        <v>20</v>
+      </c>
+      <c r="S39" s="6">
+        <v>64800</v>
+      </c>
+      <c r="T39" s="33" t="s">
+        <v>226</v>
+      </c>
+      <c r="U39" s="59"/>
+    </row>
+    <row r="40" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A40" t="s">
+        <v>12</v>
+      </c>
+      <c r="B40" s="15">
+        <v>36</v>
+      </c>
+      <c r="C40" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="D40" s="16" t="s">
+        <v>161</v>
+      </c>
+      <c r="E40" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F40" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="G40" s="10" t="s">
+        <v>162</v>
+      </c>
+      <c r="H40" s="10">
+        <v>1</v>
+      </c>
+      <c r="I40" s="10" t="s">
+        <v>163</v>
+      </c>
+      <c r="J40" s="10" t="s">
+        <v>160</v>
+      </c>
+      <c r="K40" s="10" t="s">
+        <v>159</v>
+      </c>
+      <c r="L40" s="10" t="s">
+        <v>161</v>
+      </c>
+      <c r="M40" s="10">
+        <v>1750</v>
+      </c>
+      <c r="N40" s="38">
+        <f>H40*M40</f>
+        <v>1750</v>
+      </c>
+      <c r="O40" s="45">
+        <v>1000</v>
+      </c>
+      <c r="P40" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q40" s="10">
+        <v>1</v>
+      </c>
+      <c r="R40" s="34">
+        <v>60</v>
+      </c>
+      <c r="S40" s="6">
+        <v>60000</v>
+      </c>
+      <c r="T40" s="33" t="s">
+        <v>227</v>
+      </c>
+      <c r="U40" s="59"/>
+      <c r="V40" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="41" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="A41" t="s">
+        <v>12</v>
+      </c>
+      <c r="B41" s="15">
+        <v>37</v>
+      </c>
+      <c r="C41" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="D41" s="16" t="s">
+        <v>164</v>
+      </c>
+      <c r="E41" s="10" t="s">
+        <v>156</v>
+      </c>
+      <c r="F41" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="G41" s="10" t="s">
+        <v>165</v>
+      </c>
+      <c r="H41" s="10">
+        <v>1</v>
+      </c>
+      <c r="I41" s="10" t="s">
+        <v>166</v>
+      </c>
+      <c r="J41" s="10" t="s">
+        <v>168</v>
+      </c>
+      <c r="K41" s="10" t="s">
+        <v>167</v>
+      </c>
+      <c r="L41" s="10" t="s">
+        <v>164</v>
+      </c>
+      <c r="M41" s="10">
+        <v>870</v>
+      </c>
+      <c r="N41" s="38">
+        <f>H41*M41</f>
+        <v>870</v>
+      </c>
+      <c r="O41" s="45">
+        <v>870</v>
+      </c>
+      <c r="P41" s="32">
+        <f t="shared" si="1"/>
+        <v>20</v>
+      </c>
+      <c r="Q41" s="10">
+        <v>5</v>
+      </c>
+      <c r="R41" s="34">
+        <v>40</v>
+      </c>
+      <c r="S41" s="6">
+        <v>34800</v>
+      </c>
+      <c r="T41" s="33" t="s">
+        <v>228</v>
+      </c>
+      <c r="U41" s="59"/>
+      <c r="V41" t="s">
+        <v>214</v>
+      </c>
+    </row>
+    <row r="42" spans="1:22" s="13" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="A42" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="15">
+        <v>38</v>
+      </c>
+      <c r="C42" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="D42" s="19" t="s">
+        <v>55</v>
+      </c>
+      <c r="E42" s="18" t="s">
+        <v>46</v>
+      </c>
+      <c r="F42" s="18" t="s">
+        <v>55</v>
+      </c>
+      <c r="G42" s="18"/>
+      <c r="H42" s="18">
+        <v>4</v>
+      </c>
+      <c r="I42" s="18" t="s">
+        <v>56</v>
+      </c>
+      <c r="J42" s="18" t="s">
+        <v>27</v>
+      </c>
+      <c r="K42" s="18" t="s">
+        <v>49</v>
+      </c>
+      <c r="L42" s="18" t="s">
+        <v>44</v>
+      </c>
+      <c r="M42" s="18">
+        <v>10</v>
+      </c>
+      <c r="N42" s="43"/>
+      <c r="O42" s="17"/>
+      <c r="P42" s="18"/>
+      <c r="Q42" s="18"/>
+      <c r="R42" s="18"/>
+      <c r="S42" s="18"/>
+      <c r="T42" s="20"/>
+      <c r="U42" s="54"/>
+    </row>
+    <row r="43" spans="1:22" s="13" customFormat="1" ht="17.25" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="13" t="s">
+        <v>54</v>
+      </c>
+      <c r="B43" s="28">
+        <v>39</v>
+      </c>
+      <c r="C43" s="14" t="s">
+        <v>191</v>
+      </c>
+      <c r="D43" s="22"/>
+      <c r="E43" s="14"/>
+      <c r="F43" s="14"/>
+      <c r="G43" s="14" t="s">
+        <v>192</v>
+      </c>
+      <c r="H43" s="14">
+        <v>4</v>
+      </c>
+      <c r="I43" s="14" t="s">
+        <v>193</v>
+      </c>
+      <c r="J43" s="14" t="s">
+        <v>195</v>
+      </c>
+      <c r="K43" s="14"/>
+      <c r="L43" s="14" t="s">
+        <v>194</v>
+      </c>
+      <c r="M43" s="14"/>
+      <c r="N43" s="44"/>
+      <c r="O43" s="21"/>
+      <c r="P43" s="14"/>
+      <c r="Q43" s="14"/>
+      <c r="R43" s="14"/>
+      <c r="S43" s="14"/>
+      <c r="T43" s="23"/>
+      <c r="U43" s="55"/>
+    </row>
+    <row r="44" spans="1:22" x14ac:dyDescent="0.3">
+      <c r="N44" s="8">
+        <f>SUM(N5:N43)</f>
+        <v>21880</v>
+      </c>
+    </row>
+    <row r="45" spans="1:22" s="1" customFormat="1" x14ac:dyDescent="0.3">
+      <c r="B45" s="1" t="s">
+        <v>203</v>
+      </c>
+      <c r="D45" s="3"/>
+      <c r="N45"/>
+    </row>
+  </sheetData>
+  <autoFilter ref="B4:L4"/>
+  <phoneticPr fontId="19" type="noConversion"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+</worksheet>
 </file>